--- a/Data/Input/Plantilla Solicitud Actualización Monetaria de Saldos_V03.xlsx
+++ b/Data/Input/Plantilla Solicitud Actualización Monetaria de Saldos_V03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\polmosve\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alell\Documents\UiPath\RepoJorge\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447F45D6-5EFF-4D28-A2D4-C67DD29BEE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC15D17-0FA9-47A1-A3D1-F155618C06CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BEDB4D4B-4183-4831-AED4-C2875EED24B0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BEDB4D4B-4183-4831-AED4-C2875EED24B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>Periodicidad</t>
   </si>
@@ -238,6 +238,9 @@
   <si>
     <t>Servicio Suscrito</t>
   </si>
+  <si>
+    <t>N/A</t>
+  </si>
 </sst>
 </file>
 
@@ -246,7 +249,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,7 +394,7 @@
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -412,9 +415,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -781,17 +781,17 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.08203125" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.25" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
@@ -800,7 +800,7 @@
     <col min="12" max="16384" width="11" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="24.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -815,7 +815,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="42" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -850,19 +850,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:11" ht="25.5" customHeight="1">
+      <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -881,110 +881,118 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D4" s="10">
         <v>783254</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="F4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="10">
+        <v>783254</v>
+      </c>
+      <c r="H4" s="12">
+        <v>45153</v>
+      </c>
+      <c r="I4" s="12">
+        <v>45153</v>
+      </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="14"/>
+      <c r="K10" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:C3"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:K10">
+  <conditionalFormatting sqref="H4:K4 E5:K10 E4:F4">
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>IF(AND($B4="EGA",$A4="Indexacion"),1,0)</formula>
     </cfRule>
@@ -1003,7 +1011,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A10" xr:uid="{B5278AF6-9C9B-44BD-B6C5-96AEB3F2456B}">
       <formula1>Metodo</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G10" xr:uid="{AD355114-4239-4943-91AF-8EFE9D5D3FB5}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G10" xr:uid="{AD355114-4239-4943-91AF-8EFE9D5D3FB5}">
       <formula1>1</formula1>
     </dataValidation>
     <dataValidation type="date" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:I10" xr:uid="{DD1F3B25-371F-44CC-9511-88DB4C4B236B}">
@@ -1011,10 +1019,10 @@
     </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Solo aplica para casos de Naturaleza &quot;Fallo&quot;" sqref="F1048568:F1048576" xr:uid="{E3063C08-0876-457F-9625-16E8B030AE4A}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Diligencie este campo sólo si el tipo de tasa es &quot;FIJA&quot;" sqref="K4:K10" xr:uid="{3E54CAE0-39F1-4CDF-AF64-53831297B4CC}"/>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Solo aplica para casos de Naturaleza &quot;Fallos&quot;" prompt="Solo aplica para casos de Naturaleza &quot;Sentencias judiciales&quot;" sqref="F4:F10" xr:uid="{7E8E9D9B-253F-487A-B9A8-61EBE6C79C4D}">
-      <formula1>+IF(B4="Fallos",1,0)</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Solo aplica para casos de Naturaleza &quot;Fallos&quot;" prompt="Solo aplica para casos de Naturaleza &quot;Sentencias judiciales&quot;" sqref="F5:F10" xr:uid="{7E8E9D9B-253F-487A-B9A8-61EBE6C79C4D}">
+      <formula1>+IF(B5="Fallos",1,0)</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Diligencie si la Naturaleza es &quot;Acuerdos de pago&quot;" sqref="E4:E10" xr:uid="{FCE90A92-65A8-4B7C-99B3-143214A28BA6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Diligencie si la Naturaleza es &quot;Acuerdos de pago&quot;" sqref="E4:E10 F4" xr:uid="{FCE90A92-65A8-4B7C-99B3-143214A28BA6}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1053,18 +1061,18 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="23.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="4" width="21.08203125" customWidth="1"/>
+    <col min="3" max="4" width="21.125" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" hidden="1" customWidth="1"/>
     <col min="7" max="12" width="0" hidden="1" customWidth="1"/>
     <col min="13" max="16384" width="11" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="29.25" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1073,7 +1081,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1090,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -1107,7 +1115,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
         <v>41</v>
       </c>
@@ -1124,7 +1132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
         <v>42</v>
@@ -1139,7 +1147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
         <v>6</v>
@@ -1152,7 +1160,7 @@
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
         <v>43</v>
@@ -1165,7 +1173,7 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="8"/>
       <c r="B8" s="8" t="s">
         <v>39</v>
@@ -1178,7 +1186,7 @@
       </c>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
         <v>30</v>
@@ -1189,7 +1197,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
@@ -1198,7 +1206,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1215,6 +1223,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100234B6F753C52164FB1D554AAB843CFC0" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c49ba982dcf680c873a8f73a8b11005e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ad235908-71e9-4a93-8573-0051611839c1" xmlns:ns4="da22d1dd-5ebb-4fec-87c6-eff43ee1d269" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dfdef8db603e80689089208ed8d6cc3" ns3:_="" ns4:_="">
     <xsd:import namespace="ad235908-71e9-4a93-8573-0051611839c1"/>
@@ -1437,15 +1454,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1453,6 +1461,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F7C471C-8B59-48A3-B723-C5EB71E15D7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73331828-9398-4487-9505-C772371AA75C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1467,14 +1483,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F7C471C-8B59-48A3-B723-C5EB71E15D7C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
